--- a/src/main/resources/datasources/angleterre/infoPaieAngleterre.xlsx
+++ b/src/main/resources/datasources/angleterre/infoPaieAngleterre.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\IdeaProjects\projetDintegrationGlobalHumanRessource\src\main\resources\datasources\angleterre\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85798725-117C-46B3-B2CA-27583958D047}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="InfoPaie" r:id="rId3" sheetId="1"/>
+    <sheet name="InfoPaie" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>ID</t>
   </si>
@@ -42,26 +51,211 @@
   </si>
   <si>
     <t>Periode Paie</t>
+  </si>
+  <si>
+    <t>infp001</t>
+  </si>
+  <si>
+    <t>infp002</t>
+  </si>
+  <si>
+    <t>infp003</t>
+  </si>
+  <si>
+    <t>infp004</t>
+  </si>
+  <si>
+    <t>infp005</t>
+  </si>
+  <si>
+    <t>infp006</t>
+  </si>
+  <si>
+    <t>infp007</t>
+  </si>
+  <si>
+    <t>infp008</t>
+  </si>
+  <si>
+    <t>infp009</t>
+  </si>
+  <si>
+    <t>infp010</t>
+  </si>
+  <si>
+    <t>infp011</t>
+  </si>
+  <si>
+    <t>infp012</t>
+  </si>
+  <si>
+    <t>infp013</t>
+  </si>
+  <si>
+    <t>infp014</t>
+  </si>
+  <si>
+    <t>infp015</t>
+  </si>
+  <si>
+    <t>infp016</t>
+  </si>
+  <si>
+    <t>infp017</t>
+  </si>
+  <si>
+    <t>infp018</t>
+  </si>
+  <si>
+    <t>infp019</t>
+  </si>
+  <si>
+    <t>infp020</t>
+  </si>
+  <si>
+    <t>janvier 2021 au 28 fevrier 2021</t>
+  </si>
+  <si>
+    <t>EA1</t>
+  </si>
+  <si>
+    <t>EA2</t>
+  </si>
+  <si>
+    <t>EA3</t>
+  </si>
+  <si>
+    <t>EA4</t>
+  </si>
+  <si>
+    <t>EA5</t>
+  </si>
+  <si>
+    <t>EA6</t>
+  </si>
+  <si>
+    <t>EA7</t>
+  </si>
+  <si>
+    <t>EA8</t>
+  </si>
+  <si>
+    <t>EA9</t>
+  </si>
+  <si>
+    <t>EA10</t>
+  </si>
+  <si>
+    <t>EA11</t>
+  </si>
+  <si>
+    <t>EA12</t>
+  </si>
+  <si>
+    <t>EA13</t>
+  </si>
+  <si>
+    <t>EA14</t>
+  </si>
+  <si>
+    <t>EA15</t>
+  </si>
+  <si>
+    <t>EA16</t>
+  </si>
+  <si>
+    <t>EA17</t>
+  </si>
+  <si>
+    <t>EA18</t>
+  </si>
+  <si>
+    <t>EA19</t>
+  </si>
+  <si>
+    <t>EA20</t>
+  </si>
+  <si>
+    <t>janvier 2021 au 28 fevrier 2022</t>
+  </si>
+  <si>
+    <t>janvier 2021 au 28 fevrier 2023</t>
+  </si>
+  <si>
+    <t>janvier 2021 au 28 fevrier 2024</t>
+  </si>
+  <si>
+    <t>janvier 2021 au 28 fevrier 2025</t>
+  </si>
+  <si>
+    <t>janvier 2021 au 28 fevrier 2026</t>
+  </si>
+  <si>
+    <t>janvier 2021 au 28 fevrier 2027</t>
+  </si>
+  <si>
+    <t>janvier 2021 au 28 fevrier 2028</t>
+  </si>
+  <si>
+    <t>janvier 2021 au 28 fevrier 2029</t>
+  </si>
+  <si>
+    <t>janvier 2021 au 28 fevrier 2030</t>
+  </si>
+  <si>
+    <t>janvier 2021 au 28 fevrier 2031</t>
+  </si>
+  <si>
+    <t>janvier 2021 au 28 fevrier 2032</t>
+  </si>
+  <si>
+    <t>janvier 2021 au 28 fevrier 2033</t>
+  </si>
+  <si>
+    <t>janvier 2021 au 28 fevrier 2034</t>
+  </si>
+  <si>
+    <t>janvier 2021 au 28 fevrier 2035</t>
+  </si>
+  <si>
+    <t>janvier 2021 au 28 fevrier 2036</t>
+  </si>
+  <si>
+    <t>janvier 2021 au 28 fevrier 2037</t>
+  </si>
+  <si>
+    <t>janvier 2021 au 28 fevrier 2038</t>
+  </si>
+  <si>
+    <t>janvier 2021 au 28 fevrier 2039</t>
+  </si>
+  <si>
+    <t>janvier 2021 au 28 fevrier 2040</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-      <color indexed="10"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -69,7 +263,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -86,64 +280,952 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.5625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.59375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="16.85546875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="12.33984375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="13.390625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="6.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="25.57421875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="25.34375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="15.9453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2">
+        <v>35</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>45.2</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>35</v>
+      </c>
+      <c r="D3">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>45.2</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>35</v>
+      </c>
+      <c r="D4">
+        <v>71</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>45.2</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>35</v>
+      </c>
+      <c r="D5">
+        <v>55</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>45.2</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>35</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>45.2</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>23</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>45.2</v>
+      </c>
+      <c r="I7">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>45.2</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>45.2</v>
+      </c>
+      <c r="I9">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>12.13</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>45.2</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>12.5</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>45.2</v>
+      </c>
+      <c r="I11">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>45.2</v>
+      </c>
+      <c r="I12">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>13</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>45.2</v>
+      </c>
+      <c r="I13">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14">
+        <v>35</v>
+      </c>
+      <c r="D14">
+        <v>25</v>
+      </c>
+      <c r="F14">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>45.2</v>
+      </c>
+      <c r="I14">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15">
+        <v>35</v>
+      </c>
+      <c r="D15">
+        <v>17</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>45.2</v>
+      </c>
+      <c r="I15">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16">
+        <v>35</v>
+      </c>
+      <c r="D16">
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>45.2</v>
+      </c>
+      <c r="I16">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17">
+        <v>35</v>
+      </c>
+      <c r="D17">
+        <v>26</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>45.2</v>
+      </c>
+      <c r="I17">
+        <v>20</v>
+      </c>
+      <c r="J17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18">
+        <v>35</v>
+      </c>
+      <c r="D18">
+        <v>11</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>45.2</v>
+      </c>
+      <c r="I18">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19">
+        <v>35</v>
+      </c>
+      <c r="D19">
+        <v>50</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>45.2</v>
+      </c>
+      <c r="I19">
+        <v>20</v>
+      </c>
+      <c r="J19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20">
+        <v>35</v>
+      </c>
+      <c r="D20">
+        <v>34</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>45.2</v>
+      </c>
+      <c r="I20">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21">
+        <v>35</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>45.2</v>
+      </c>
+      <c r="I21">
+        <v>20</v>
+      </c>
+      <c r="J21" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/datasources/angleterre/infoPaieAngleterre.xlsx
+++ b/src/main/resources/datasources/angleterre/infoPaieAngleterre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\IdeaProjects\projetDintegrationGlobalHumanRessource\src\main\resources\datasources\angleterre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85798725-117C-46B3-B2CA-27583958D047}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DDA98E-78E0-496C-BAFE-DBE5BECA14F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,11 @@
     <sheet name="InfoPaie" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -113,9 +112,6 @@
     <t>infp020</t>
   </si>
   <si>
-    <t>janvier 2021 au 28 fevrier 2021</t>
-  </si>
-  <si>
     <t>EA1</t>
   </si>
   <si>
@@ -176,61 +172,7 @@
     <t>EA20</t>
   </si>
   <si>
-    <t>janvier 2021 au 28 fevrier 2022</t>
-  </si>
-  <si>
-    <t>janvier 2021 au 28 fevrier 2023</t>
-  </si>
-  <si>
-    <t>janvier 2021 au 28 fevrier 2024</t>
-  </si>
-  <si>
-    <t>janvier 2021 au 28 fevrier 2025</t>
-  </si>
-  <si>
-    <t>janvier 2021 au 28 fevrier 2026</t>
-  </si>
-  <si>
-    <t>janvier 2021 au 28 fevrier 2027</t>
-  </si>
-  <si>
-    <t>janvier 2021 au 28 fevrier 2028</t>
-  </si>
-  <si>
-    <t>janvier 2021 au 28 fevrier 2029</t>
-  </si>
-  <si>
-    <t>janvier 2021 au 28 fevrier 2030</t>
-  </si>
-  <si>
-    <t>janvier 2021 au 28 fevrier 2031</t>
-  </si>
-  <si>
-    <t>janvier 2021 au 28 fevrier 2032</t>
-  </si>
-  <si>
-    <t>janvier 2021 au 28 fevrier 2033</t>
-  </si>
-  <si>
-    <t>janvier 2021 au 28 fevrier 2034</t>
-  </si>
-  <si>
-    <t>janvier 2021 au 28 fevrier 2035</t>
-  </si>
-  <si>
-    <t>janvier 2021 au 28 fevrier 2036</t>
-  </si>
-  <si>
-    <t>janvier 2021 au 28 fevrier 2037</t>
-  </si>
-  <si>
-    <t>janvier 2021 au 28 fevrier 2038</t>
-  </si>
-  <si>
-    <t>janvier 2021 au 28 fevrier 2039</t>
-  </si>
-  <si>
-    <t>janvier 2021 au 28 fevrier 2040</t>
+    <t>01/01/2021-31/01/2021</t>
   </si>
 </sst>
 </file>
@@ -598,7 +540,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J21"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,7 +594,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>35</v>
@@ -673,7 +615,7 @@
         <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -681,7 +623,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>35</v>
@@ -702,7 +644,7 @@
         <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -710,7 +652,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>35</v>
@@ -731,7 +673,7 @@
         <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -739,7 +681,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>35</v>
@@ -760,7 +702,7 @@
         <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -768,7 +710,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>35</v>
@@ -789,7 +731,7 @@
         <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -797,7 +739,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>35</v>
@@ -818,7 +760,7 @@
         <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -826,7 +768,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8">
         <v>35</v>
@@ -847,7 +789,7 @@
         <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -855,7 +797,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>35</v>
@@ -876,7 +818,7 @@
         <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -884,7 +826,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10">
         <v>35</v>
@@ -905,7 +847,7 @@
         <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -913,7 +855,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11">
         <v>35</v>
@@ -934,7 +876,7 @@
         <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -942,7 +884,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12">
         <v>35</v>
@@ -963,7 +905,7 @@
         <v>20</v>
       </c>
       <c r="J12" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -971,7 +913,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13">
         <v>35</v>
@@ -992,7 +934,7 @@
         <v>20</v>
       </c>
       <c r="J13" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1000,7 +942,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14">
         <v>35</v>
@@ -1021,7 +963,7 @@
         <v>20</v>
       </c>
       <c r="J14" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1029,7 +971,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15">
         <v>35</v>
@@ -1050,7 +992,7 @@
         <v>20</v>
       </c>
       <c r="J15" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1058,7 +1000,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16">
         <v>35</v>
@@ -1079,7 +1021,7 @@
         <v>20</v>
       </c>
       <c r="J16" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1087,7 +1029,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17">
         <v>35</v>
@@ -1108,7 +1050,7 @@
         <v>20</v>
       </c>
       <c r="J17" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1116,7 +1058,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18">
         <v>35</v>
@@ -1137,7 +1079,7 @@
         <v>20</v>
       </c>
       <c r="J18" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1145,7 +1087,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19">
         <v>35</v>
@@ -1166,7 +1108,7 @@
         <v>20</v>
       </c>
       <c r="J19" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1174,7 +1116,7 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20">
         <v>35</v>
@@ -1195,7 +1137,7 @@
         <v>20</v>
       </c>
       <c r="J20" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1203,7 +1145,7 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21">
         <v>35</v>
@@ -1221,7 +1163,7 @@
         <v>20</v>
       </c>
       <c r="J21" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/datasources/angleterre/infoPaieAngleterre.xlsx
+++ b/src/main/resources/datasources/angleterre/infoPaieAngleterre.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projets\java\classe\projetIntegrationWithMaven\src\main\resources\datasources\angleterre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\IdeaProjects\projetDintegrationGlobalHumanRessource\src\main\resources\datasources\angleterre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921E6046-E0B6-4ABC-AE89-B3F33D0858A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D5E230-8F93-4B1A-B333-5EE3A04CB8AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="1935" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InfoPaie" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -54,13 +54,33 @@
   <si>
     <t>01/01/2021-31/01/2021</t>
   </si>
+  <si>
+    <t>01/02/2021-28/02/2021</t>
+  </si>
+  <si>
+    <t>01/03/2021-31/03/2021</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -72,12 +92,7 @@
       <sz val="14"/>
       <color indexed="10"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,9 +115,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,34 +454,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -480,13 +496,19 @@
         <v>35</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <f ca="1">RANDBETWEEN(1,20)</f>
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <f ca="1">RANDBETWEEN(5,15)</f>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <f ca="1">RANDBETWEEN(0,200)</f>
+        <v>26</v>
       </c>
       <c r="H2">
         <v>45.2</v>
@@ -511,11 +533,16 @@
       <c r="D3">
         <v>13</v>
       </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E58" ca="1" si="0">RANDBETWEEN(5,15)</f>
+        <v>6</v>
+      </c>
       <c r="F3">
         <v>12</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <f t="shared" ref="G3:G58" ca="1" si="1">RANDBETWEEN(0,200)</f>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>45.2</v>
@@ -540,11 +567,16 @@
       <c r="D4">
         <v>71</v>
       </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>117</v>
       </c>
       <c r="H4">
         <v>45.2</v>
@@ -569,11 +601,16 @@
       <c r="D5">
         <v>55</v>
       </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>139</v>
       </c>
       <c r="H5">
         <v>45.2</v>
@@ -598,11 +635,16 @@
       <c r="D6">
         <v>45</v>
       </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>198</v>
       </c>
       <c r="H6">
         <v>45.2</v>
@@ -627,11 +669,16 @@
       <c r="D7">
         <v>23</v>
       </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
       <c r="F7">
         <v>20</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>45.2</v>
@@ -656,11 +703,16 @@
       <c r="D8">
         <v>20</v>
       </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>89</v>
       </c>
       <c r="H8">
         <v>45.2</v>
@@ -685,11 +737,16 @@
       <c r="D9">
         <v>9.0299999999999994</v>
       </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>152</v>
       </c>
       <c r="H9">
         <v>45.2</v>
@@ -714,11 +771,16 @@
       <c r="D10">
         <v>12.13</v>
       </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
       <c r="F10">
         <v>11</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>98</v>
       </c>
       <c r="H10">
         <v>45.2</v>
@@ -743,11 +805,16 @@
       <c r="D11">
         <v>12.5</v>
       </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>191</v>
       </c>
       <c r="H11">
         <v>45.2</v>
@@ -772,11 +839,16 @@
       <c r="D12">
         <v>14</v>
       </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
       <c r="F12">
         <v>6</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>76</v>
       </c>
       <c r="H12">
         <v>45.2</v>
@@ -801,11 +873,16 @@
       <c r="D13">
         <v>13</v>
       </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
       <c r="F13">
         <v>2</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>166</v>
       </c>
       <c r="H13">
         <v>45.2</v>
@@ -830,11 +907,16 @@
       <c r="D14">
         <v>25</v>
       </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
       <c r="F14">
         <v>15</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>33</v>
       </c>
       <c r="H14">
         <v>45.2</v>
@@ -859,11 +941,16 @@
       <c r="D15">
         <v>17</v>
       </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
       <c r="F15">
         <v>2</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="H15">
         <v>45.2</v>
@@ -888,11 +975,16 @@
       <c r="D16">
         <v>30</v>
       </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
       </c>
       <c r="H16">
         <v>45.2</v>
@@ -917,11 +1009,16 @@
       <c r="D17">
         <v>26</v>
       </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
       <c r="F17">
         <v>10</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>48</v>
       </c>
       <c r="H17">
         <v>45.2</v>
@@ -946,11 +1043,16 @@
       <c r="D18">
         <v>11</v>
       </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
       <c r="F18">
         <v>2</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>188</v>
       </c>
       <c r="H18">
         <v>45.2</v>
@@ -975,11 +1077,16 @@
       <c r="D19">
         <v>50</v>
       </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
       <c r="F19">
         <v>4</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
       </c>
       <c r="H19">
         <v>45.2</v>
@@ -1004,11 +1111,16 @@
       <c r="D20">
         <v>34</v>
       </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
       <c r="F20">
         <v>7</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>181</v>
       </c>
       <c r="H20">
         <v>45.2</v>
@@ -1020,8 +1132,1337 @@
         <v>10</v>
       </c>
     </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>35</v>
+      </c>
+      <c r="D21">
+        <f ca="1">RANDBETWEEN(1,20)</f>
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <f ca="1">RANDBETWEEN(1,20)</f>
+        <v>16</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="H21">
+        <v>45</v>
+      </c>
+      <c r="I21">
+        <v>20</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>35</v>
+      </c>
+      <c r="D22">
+        <v>13</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ca="1" si="1"/>
+        <v>177</v>
+      </c>
+      <c r="H22">
+        <v>45</v>
+      </c>
+      <c r="I22">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>35</v>
+      </c>
+      <c r="D23">
+        <v>71</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ref="F23:F58" ca="1" si="2">RANDBETWEEN(1,20)</f>
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ca="1" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="H23">
+        <v>45</v>
+      </c>
+      <c r="I23">
+        <v>20</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>35</v>
+      </c>
+      <c r="D24">
+        <v>55</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="1"/>
+        <v>197</v>
+      </c>
+      <c r="H24">
+        <v>45</v>
+      </c>
+      <c r="I24">
+        <v>20</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>35</v>
+      </c>
+      <c r="D25">
+        <v>45</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ca="1" si="1"/>
+        <v>132</v>
+      </c>
+      <c r="H25">
+        <v>45</v>
+      </c>
+      <c r="I25">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>35</v>
+      </c>
+      <c r="D26">
+        <v>23</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="H26">
+        <v>45</v>
+      </c>
+      <c r="I26">
+        <v>20</v>
+      </c>
+      <c r="J26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>35</v>
+      </c>
+      <c r="D27">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ca="1" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="H27">
+        <v>45</v>
+      </c>
+      <c r="I27">
+        <v>20</v>
+      </c>
+      <c r="J27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>35</v>
+      </c>
+      <c r="D28">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ca="1" si="1"/>
+        <v>168</v>
+      </c>
+      <c r="H28">
+        <v>45</v>
+      </c>
+      <c r="I28">
+        <v>20</v>
+      </c>
+      <c r="J28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>35</v>
+      </c>
+      <c r="D29">
+        <v>12.13</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ca="1" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="H29">
+        <v>45</v>
+      </c>
+      <c r="I29">
+        <v>20</v>
+      </c>
+      <c r="J29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>35</v>
+      </c>
+      <c r="D30">
+        <v>12.5</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="H30">
+        <v>45</v>
+      </c>
+      <c r="I30">
+        <v>20</v>
+      </c>
+      <c r="J30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>11</v>
+      </c>
+      <c r="B31">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>35</v>
+      </c>
+      <c r="D31">
+        <v>14</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="H31">
+        <v>45</v>
+      </c>
+      <c r="I31">
+        <v>20</v>
+      </c>
+      <c r="J31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>12</v>
+      </c>
+      <c r="B32">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>35</v>
+      </c>
+      <c r="D32">
+        <v>13</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ca="1" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="H32">
+        <v>45</v>
+      </c>
+      <c r="I32">
+        <v>20</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>13</v>
+      </c>
+      <c r="B33">
+        <v>13</v>
+      </c>
+      <c r="C33">
+        <v>35</v>
+      </c>
+      <c r="D33">
+        <v>25</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ca="1" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="H33">
+        <v>45</v>
+      </c>
+      <c r="I33">
+        <v>20</v>
+      </c>
+      <c r="J33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>14</v>
+      </c>
+      <c r="B34">
+        <v>14</v>
+      </c>
+      <c r="C34">
+        <v>35</v>
+      </c>
+      <c r="D34">
+        <v>17</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ca="1" si="1"/>
+        <v>197</v>
+      </c>
+      <c r="H34">
+        <v>45</v>
+      </c>
+      <c r="I34">
+        <v>20</v>
+      </c>
+      <c r="J34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>15</v>
+      </c>
+      <c r="B35">
+        <v>15</v>
+      </c>
+      <c r="C35">
+        <v>35</v>
+      </c>
+      <c r="D35">
+        <v>30</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ca="1" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="H35">
+        <v>45</v>
+      </c>
+      <c r="I35">
+        <v>20</v>
+      </c>
+      <c r="J35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>16</v>
+      </c>
+      <c r="B36">
+        <v>16</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="D36">
+        <v>26</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ca="1" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="H36">
+        <v>45</v>
+      </c>
+      <c r="I36">
+        <v>20</v>
+      </c>
+      <c r="J36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>17</v>
+      </c>
+      <c r="B37">
+        <v>17</v>
+      </c>
+      <c r="C37">
+        <v>35</v>
+      </c>
+      <c r="D37">
+        <v>11</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ca="1" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="H37">
+        <v>45</v>
+      </c>
+      <c r="I37">
+        <v>20</v>
+      </c>
+      <c r="J37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>18</v>
+      </c>
+      <c r="B38">
+        <v>18</v>
+      </c>
+      <c r="C38">
+        <v>35</v>
+      </c>
+      <c r="D38">
+        <v>50</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ca="1" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="H38">
+        <v>45</v>
+      </c>
+      <c r="I38">
+        <v>20</v>
+      </c>
+      <c r="J38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>19</v>
+      </c>
+      <c r="B39">
+        <v>19</v>
+      </c>
+      <c r="C39">
+        <v>35</v>
+      </c>
+      <c r="D39">
+        <v>34</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="H39">
+        <v>45</v>
+      </c>
+      <c r="I39">
+        <v>20</v>
+      </c>
+      <c r="J39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>35</v>
+      </c>
+      <c r="D40">
+        <f ca="1">RANDBETWEEN(1,20)</f>
+        <v>16</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="G40">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H40">
+        <v>45</v>
+      </c>
+      <c r="I40">
+        <v>20</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>35</v>
+      </c>
+      <c r="D41">
+        <v>13</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ca="1" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="H41">
+        <v>45</v>
+      </c>
+      <c r="I41">
+        <v>20</v>
+      </c>
+      <c r="J41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>35</v>
+      </c>
+      <c r="D42">
+        <v>71</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ca="1" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="H42">
+        <v>45</v>
+      </c>
+      <c r="I42">
+        <v>20</v>
+      </c>
+      <c r="J42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>35</v>
+      </c>
+      <c r="D43">
+        <v>55</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <f t="shared" ca="1" si="1"/>
+        <v>199</v>
+      </c>
+      <c r="H43">
+        <v>45</v>
+      </c>
+      <c r="I43">
+        <v>20</v>
+      </c>
+      <c r="J43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>35</v>
+      </c>
+      <c r="D44">
+        <v>45</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ca="1" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="H44">
+        <v>45</v>
+      </c>
+      <c r="I44">
+        <v>20</v>
+      </c>
+      <c r="J44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>6</v>
+      </c>
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>35</v>
+      </c>
+      <c r="D45">
+        <v>23</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>45</v>
+      </c>
+      <c r="I45">
+        <v>20</v>
+      </c>
+      <c r="J45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>7</v>
+      </c>
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>35</v>
+      </c>
+      <c r="D46">
+        <v>20</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ca="1" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="H46">
+        <v>45</v>
+      </c>
+      <c r="I46">
+        <v>20</v>
+      </c>
+      <c r="J46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>8</v>
+      </c>
+      <c r="B47">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>35</v>
+      </c>
+      <c r="D47">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="G47">
+        <f t="shared" ca="1" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H47">
+        <v>45</v>
+      </c>
+      <c r="I47">
+        <v>20</v>
+      </c>
+      <c r="J47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>9</v>
+      </c>
+      <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>35</v>
+      </c>
+      <c r="D48">
+        <v>12.13</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ca="1" si="1"/>
+        <v>177</v>
+      </c>
+      <c r="H48">
+        <v>45</v>
+      </c>
+      <c r="I48">
+        <v>20</v>
+      </c>
+      <c r="J48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>10</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>35</v>
+      </c>
+      <c r="D49">
+        <v>12.5</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G49">
+        <f t="shared" ca="1" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="H49">
+        <v>45</v>
+      </c>
+      <c r="I49">
+        <v>20</v>
+      </c>
+      <c r="J49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>11</v>
+      </c>
+      <c r="B50">
+        <v>11</v>
+      </c>
+      <c r="C50">
+        <v>35</v>
+      </c>
+      <c r="D50">
+        <v>14</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ca="1" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="G50">
+        <f t="shared" ca="1" si="1"/>
+        <v>159</v>
+      </c>
+      <c r="H50">
+        <v>45</v>
+      </c>
+      <c r="I50">
+        <v>20</v>
+      </c>
+      <c r="J50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>12</v>
+      </c>
+      <c r="B51">
+        <v>12</v>
+      </c>
+      <c r="C51">
+        <v>35</v>
+      </c>
+      <c r="D51">
+        <v>13</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ca="1" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="G51">
+        <f t="shared" ca="1" si="1"/>
+        <v>185</v>
+      </c>
+      <c r="H51">
+        <v>45</v>
+      </c>
+      <c r="I51">
+        <v>20</v>
+      </c>
+      <c r="J51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>13</v>
+      </c>
+      <c r="B52">
+        <v>13</v>
+      </c>
+      <c r="C52">
+        <v>35</v>
+      </c>
+      <c r="D52">
+        <v>25</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G52">
+        <f t="shared" ca="1" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="H52">
+        <v>45</v>
+      </c>
+      <c r="I52">
+        <v>20</v>
+      </c>
+      <c r="J52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>14</v>
+      </c>
+      <c r="B53">
+        <v>14</v>
+      </c>
+      <c r="C53">
+        <v>35</v>
+      </c>
+      <c r="D53">
+        <v>17</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="G53">
+        <f t="shared" ca="1" si="1"/>
+        <v>188</v>
+      </c>
+      <c r="H53">
+        <v>45</v>
+      </c>
+      <c r="I53">
+        <v>20</v>
+      </c>
+      <c r="J53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>15</v>
+      </c>
+      <c r="B54">
+        <v>15</v>
+      </c>
+      <c r="C54">
+        <v>35</v>
+      </c>
+      <c r="D54">
+        <v>30</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="H54">
+        <v>45</v>
+      </c>
+      <c r="I54">
+        <v>20</v>
+      </c>
+      <c r="J54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>16</v>
+      </c>
+      <c r="B55">
+        <v>16</v>
+      </c>
+      <c r="C55">
+        <v>35</v>
+      </c>
+      <c r="D55">
+        <v>26</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="G55">
+        <f t="shared" ca="1" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="H55">
+        <v>45</v>
+      </c>
+      <c r="I55">
+        <v>20</v>
+      </c>
+      <c r="J55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>17</v>
+      </c>
+      <c r="B56">
+        <v>17</v>
+      </c>
+      <c r="C56">
+        <v>35</v>
+      </c>
+      <c r="D56">
+        <v>11</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="G56">
+        <f t="shared" ca="1" si="1"/>
+        <v>189</v>
+      </c>
+      <c r="H56">
+        <v>45</v>
+      </c>
+      <c r="I56">
+        <v>20</v>
+      </c>
+      <c r="J56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>18</v>
+      </c>
+      <c r="B57">
+        <v>18</v>
+      </c>
+      <c r="C57">
+        <v>35</v>
+      </c>
+      <c r="D57">
+        <v>50</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ca="1" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="G57">
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="H57">
+        <v>45</v>
+      </c>
+      <c r="I57">
+        <v>20</v>
+      </c>
+      <c r="J57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>19</v>
+      </c>
+      <c r="B58">
+        <v>19</v>
+      </c>
+      <c r="C58">
+        <v>35</v>
+      </c>
+      <c r="D58">
+        <v>34</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <f t="shared" ca="1" si="1"/>
+        <v>172</v>
+      </c>
+      <c r="H58">
+        <v>45</v>
+      </c>
+      <c r="I58">
+        <v>20</v>
+      </c>
+      <c r="J58" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/datasources/angleterre/infoPaieAngleterre.xlsx
+++ b/src/main/resources/datasources/angleterre/infoPaieAngleterre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\IdeaProjects\projetDintegrationGlobalHumanRessource\src\main\resources\datasources\angleterre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D5E230-8F93-4B1A-B333-5EE3A04CB8AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B71935-1AEB-4C9B-8F2E-8C03F75A902B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -435,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,28 +493,25 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D2">
-        <f ca="1">RANDBETWEEN(1,20)</f>
-        <v>3</v>
+        <v>6.12</v>
       </c>
       <c r="E2">
-        <f ca="1">RANDBETWEEN(5,15)</f>
-        <v>5</v>
+        <v>10.5</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2">
-        <f ca="1">RANDBETWEEN(0,200)</f>
-        <v>26</v>
+        <v>101.1</v>
       </c>
       <c r="H2">
         <v>45.2</v>
       </c>
       <c r="I2">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
@@ -528,27 +525,25 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>13.24</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E58" ca="1" si="0">RANDBETWEEN(5,15)</f>
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="F3">
         <v>12</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G58" ca="1" si="1">RANDBETWEEN(0,200)</f>
-        <v>37</v>
+        <v>113.25</v>
       </c>
       <c r="H3">
         <v>45.2</v>
       </c>
       <c r="I3">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J3" t="s">
         <v>10</v>
@@ -562,27 +557,26 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D4">
-        <v>71</v>
+        <v>71.13</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
-        <f t="shared" ca="1" si="1"/>
-        <v>117</v>
+        <f t="shared" ref="G4:G58" ca="1" si="0">RANDBETWEEN(0,200)</f>
+        <v>89</v>
       </c>
       <c r="H4">
         <v>45.2</v>
       </c>
       <c r="I4">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J4" t="s">
         <v>10</v>
@@ -596,27 +590,26 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D5">
-        <v>55</v>
+        <v>55.6</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5">
-        <f t="shared" ca="1" si="1"/>
-        <v>139</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>77</v>
       </c>
       <c r="H5">
         <v>45.2</v>
       </c>
       <c r="I5">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J5" t="s">
         <v>10</v>
@@ -630,27 +623,26 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D6">
-        <v>45</v>
+        <v>45.3</v>
       </c>
       <c r="E6">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6">
-        <f t="shared" ca="1" si="1"/>
-        <v>198</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>147</v>
       </c>
       <c r="H6">
         <v>45.2</v>
       </c>
       <c r="I6">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J6" t="s">
         <v>10</v>
@@ -664,27 +656,26 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="E7">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="F7">
         <v>20</v>
       </c>
       <c r="G7">
-        <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>98</v>
       </c>
       <c r="H7">
         <v>45.2</v>
       </c>
       <c r="I7">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J7" t="s">
         <v>10</v>
@@ -698,27 +689,26 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>20.3</v>
       </c>
       <c r="E8">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>8.5</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8">
-        <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>155</v>
       </c>
       <c r="H8">
         <v>45.2</v>
       </c>
       <c r="I8">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J8" t="s">
         <v>10</v>
@@ -732,27 +722,26 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D9">
         <v>9.0299999999999994</v>
       </c>
       <c r="E9">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9">
-        <f t="shared" ca="1" si="1"/>
-        <v>152</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>107</v>
       </c>
       <c r="H9">
         <v>45.2</v>
       </c>
       <c r="I9">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J9" t="s">
         <v>10</v>
@@ -766,27 +755,26 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D10">
         <v>12.13</v>
       </c>
       <c r="E10">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="F10">
         <v>11</v>
       </c>
       <c r="G10">
-        <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>109</v>
       </c>
       <c r="H10">
         <v>45.2</v>
       </c>
       <c r="I10">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J10" t="s">
         <v>10</v>
@@ -800,27 +788,26 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D11">
         <v>12.5</v>
       </c>
       <c r="E11">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>7.5</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11">
-        <f t="shared" ca="1" si="1"/>
-        <v>191</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>121</v>
       </c>
       <c r="H11">
         <v>45.2</v>
       </c>
       <c r="I11">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J11" t="s">
         <v>10</v>
@@ -834,27 +821,26 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="E12">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="F12">
         <v>6</v>
       </c>
       <c r="G12">
-        <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>45.2</v>
       </c>
       <c r="I12">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J12" t="s">
         <v>10</v>
@@ -868,27 +854,26 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>13.7</v>
       </c>
       <c r="E13">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="F13">
         <v>2</v>
       </c>
       <c r="G13">
-        <f t="shared" ca="1" si="1"/>
-        <v>166</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
       </c>
       <c r="H13">
         <v>45.2</v>
       </c>
       <c r="I13">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J13" t="s">
         <v>10</v>
@@ -902,27 +887,26 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>25.23</v>
       </c>
       <c r="E14">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>12.5</v>
       </c>
       <c r="F14">
         <v>15</v>
       </c>
       <c r="G14">
-        <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="H14">
         <v>45.2</v>
       </c>
       <c r="I14">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J14" t="s">
         <v>10</v>
@@ -936,27 +920,26 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>17.12</v>
       </c>
       <c r="E15">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>11.5</v>
       </c>
       <c r="F15">
         <v>2</v>
       </c>
       <c r="G15">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
       </c>
       <c r="H15">
         <v>45.2</v>
       </c>
       <c r="I15">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J15" t="s">
         <v>10</v>
@@ -970,27 +953,26 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D16">
-        <v>30</v>
+        <v>30.3</v>
       </c>
       <c r="E16">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
       </c>
       <c r="H16">
         <v>45.2</v>
       </c>
       <c r="I16">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J16" t="s">
         <v>10</v>
@@ -1004,27 +986,26 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D17">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="E17">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>12.5</v>
       </c>
       <c r="F17">
         <v>10</v>
       </c>
       <c r="G17">
-        <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
       </c>
       <c r="H17">
         <v>45.2</v>
       </c>
       <c r="I17">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J17" t="s">
         <v>10</v>
@@ -1038,27 +1019,26 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D18">
-        <v>11</v>
+        <v>11.23</v>
       </c>
       <c r="E18">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="F18">
         <v>2</v>
       </c>
       <c r="G18">
-        <f t="shared" ca="1" si="1"/>
-        <v>188</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>111</v>
       </c>
       <c r="H18">
         <v>45.2</v>
       </c>
       <c r="I18">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J18" t="s">
         <v>10</v>
@@ -1072,27 +1052,26 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D19">
-        <v>50</v>
+        <v>50.12</v>
       </c>
       <c r="E19">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="F19">
         <v>4</v>
       </c>
       <c r="G19">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>191</v>
       </c>
       <c r="H19">
         <v>45.2</v>
       </c>
       <c r="I19">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J19" t="s">
         <v>10</v>
@@ -1106,27 +1085,26 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D20">
-        <v>34</v>
+        <v>34.229999999999997</v>
       </c>
       <c r="E20">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="F20">
         <v>7</v>
       </c>
       <c r="G20">
-        <f t="shared" ca="1" si="1"/>
-        <v>181</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>161</v>
       </c>
       <c r="H20">
         <v>45.2</v>
       </c>
       <c r="I20">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J20" t="s">
         <v>10</v>
@@ -1140,29 +1118,27 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D21">
-        <f ca="1">RANDBETWEEN(1,20)</f>
-        <v>11</v>
+        <v>6.12</v>
       </c>
       <c r="E21">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="F21">
         <f ca="1">RANDBETWEEN(1,20)</f>
         <v>16</v>
       </c>
       <c r="G21">
-        <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>200</v>
       </c>
       <c r="H21">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I21">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>11</v>
@@ -1176,24 +1152,23 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>13.24</v>
       </c>
       <c r="E22">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="G22">
-        <f t="shared" ca="1" si="1"/>
-        <v>177</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
       </c>
       <c r="H22">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I22">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1207,28 +1182,27 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D23">
-        <v>71</v>
+        <v>71.13</v>
       </c>
       <c r="E23">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>12.5</v>
       </c>
       <c r="F23">
-        <f t="shared" ref="F23:F58" ca="1" si="2">RANDBETWEEN(1,20)</f>
-        <v>20</v>
+        <f t="shared" ref="F23:F58" ca="1" si="1">RANDBETWEEN(1,20)</f>
+        <v>15</v>
       </c>
       <c r="G23">
-        <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>98</v>
       </c>
       <c r="H23">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I23">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1242,28 +1216,27 @@
         <v>4</v>
       </c>
       <c r="C24">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D24">
-        <v>55</v>
+        <v>55.6</v>
       </c>
       <c r="E24">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="F24">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
       </c>
       <c r="G24">
-        <f t="shared" ca="1" si="1"/>
-        <v>197</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>132</v>
       </c>
       <c r="H24">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I24">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1277,28 +1250,27 @@
         <v>5</v>
       </c>
       <c r="C25">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D25">
-        <v>45</v>
+        <v>45.3</v>
       </c>
       <c r="E25">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="F25">
-        <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
       </c>
       <c r="G25">
-        <f t="shared" ca="1" si="1"/>
-        <v>132</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>155</v>
       </c>
       <c r="H25">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I25">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1312,28 +1284,27 @@
         <v>6</v>
       </c>
       <c r="C26">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D26">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="E26">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="F26">
-        <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
       </c>
       <c r="G26">
-        <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>167</v>
       </c>
       <c r="H26">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I26">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1347,28 +1318,27 @@
         <v>7</v>
       </c>
       <c r="C27">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>20.3</v>
       </c>
       <c r="E27">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="F27">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>6</v>
       </c>
       <c r="G27">
-        <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>101</v>
       </c>
       <c r="H27">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I27">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1382,28 +1352,27 @@
         <v>8</v>
       </c>
       <c r="C28">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D28">
         <v>9.0299999999999994</v>
       </c>
       <c r="E28">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="F28">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
       </c>
       <c r="G28">
-        <f t="shared" ca="1" si="1"/>
-        <v>168</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>167</v>
       </c>
       <c r="H28">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I28">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1417,28 +1386,27 @@
         <v>9</v>
       </c>
       <c r="C29">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D29">
         <v>12.13</v>
       </c>
       <c r="E29">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="F29">
-        <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>16</v>
       </c>
       <c r="G29">
-        <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
       </c>
       <c r="H29">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I29">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1452,28 +1420,27 @@
         <v>10</v>
       </c>
       <c r="C30">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D30">
         <v>12.5</v>
       </c>
       <c r="E30">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="F30">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>17</v>
       </c>
       <c r="G30">
-        <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
       </c>
       <c r="H30">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I30">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1487,28 +1454,27 @@
         <v>11</v>
       </c>
       <c r="C31">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D31">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="E31">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="F31">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
       </c>
       <c r="G31">
-        <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
       </c>
       <c r="H31">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I31">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1522,28 +1488,27 @@
         <v>12</v>
       </c>
       <c r="C32">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D32">
-        <v>13</v>
+        <v>13.7</v>
       </c>
       <c r="E32">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="F32">
-        <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
       </c>
       <c r="G32">
-        <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
       </c>
       <c r="H32">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I32">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1557,28 +1522,27 @@
         <v>13</v>
       </c>
       <c r="C33">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D33">
-        <v>25</v>
+        <v>25.23</v>
       </c>
       <c r="E33">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="F33">
-        <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="G33">
-        <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>150</v>
       </c>
       <c r="H33">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I33">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1592,28 +1556,27 @@
         <v>14</v>
       </c>
       <c r="C34">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D34">
-        <v>17</v>
+        <v>17.12</v>
       </c>
       <c r="E34">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>12.5</v>
       </c>
       <c r="F34">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="G34">
-        <f t="shared" ca="1" si="1"/>
-        <v>197</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>169</v>
       </c>
       <c r="H34">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I34">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1627,28 +1590,27 @@
         <v>15</v>
       </c>
       <c r="C35">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D35">
-        <v>30</v>
+        <v>30.3</v>
       </c>
       <c r="E35">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="F35">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
       </c>
       <c r="G35">
-        <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>145</v>
       </c>
       <c r="H35">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I35">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1662,28 +1624,27 @@
         <v>16</v>
       </c>
       <c r="C36">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D36">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="E36">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>12.5</v>
       </c>
       <c r="F36">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
       </c>
       <c r="G36">
-        <f t="shared" ca="1" si="1"/>
-        <v>125</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
       </c>
       <c r="H36">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I36">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1697,28 +1658,27 @@
         <v>17</v>
       </c>
       <c r="C37">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D37">
-        <v>11</v>
+        <v>11.23</v>
       </c>
       <c r="E37">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="F37">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="G37">
-        <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
       </c>
       <c r="H37">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I37">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1732,28 +1692,27 @@
         <v>18</v>
       </c>
       <c r="C38">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D38">
-        <v>50</v>
+        <v>50.12</v>
       </c>
       <c r="E38">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>12.5</v>
       </c>
       <c r="F38">
-        <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="G38">
-        <f t="shared" ca="1" si="1"/>
-        <v>175</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
       </c>
       <c r="H38">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I38">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1767,28 +1726,27 @@
         <v>19</v>
       </c>
       <c r="C39">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D39">
-        <v>34</v>
+        <v>34.229999999999997</v>
       </c>
       <c r="E39">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="F39">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
       <c r="G39">
-        <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>180</v>
       </c>
       <c r="H39">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I39">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1802,29 +1760,27 @@
         <v>1</v>
       </c>
       <c r="C40">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D40">
-        <f ca="1">RANDBETWEEN(1,20)</f>
-        <v>16</v>
+        <v>6.12</v>
       </c>
       <c r="E40">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="F40">
-        <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>13</v>
       </c>
       <c r="G40">
-        <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>165</v>
       </c>
       <c r="H40">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I40">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>12</v>
@@ -1838,28 +1794,27 @@
         <v>2</v>
       </c>
       <c r="C41">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D41">
-        <v>13</v>
+        <v>13.24</v>
       </c>
       <c r="E41">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="F41">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
       <c r="G41">
-        <f t="shared" ca="1" si="1"/>
-        <v>107</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
       </c>
       <c r="H41">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I41">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1873,28 +1828,27 @@
         <v>3</v>
       </c>
       <c r="C42">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D42">
-        <v>71</v>
+        <v>71.13</v>
       </c>
       <c r="E42">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="F42">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="G42">
-        <f t="shared" ca="1" si="1"/>
-        <v>198</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
       </c>
       <c r="H42">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I42">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1908,28 +1862,27 @@
         <v>4</v>
       </c>
       <c r="C43">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D43">
-        <v>55</v>
+        <v>55.6</v>
       </c>
       <c r="E43">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="F43">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
       </c>
       <c r="G43">
-        <f t="shared" ca="1" si="1"/>
-        <v>199</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>105</v>
       </c>
       <c r="H43">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I43">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1943,28 +1896,27 @@
         <v>5</v>
       </c>
       <c r="C44">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D44">
-        <v>45</v>
+        <v>45.3</v>
       </c>
       <c r="E44">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>15.5</v>
       </c>
       <c r="F44">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
       </c>
       <c r="G44">
-        <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
       </c>
       <c r="H44">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I44">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1978,28 +1930,27 @@
         <v>6</v>
       </c>
       <c r="C45">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D45">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="E45">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="F45">
-        <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
       </c>
       <c r="G45">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>182</v>
       </c>
       <c r="H45">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I45">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -2013,28 +1964,27 @@
         <v>7</v>
       </c>
       <c r="C46">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D46">
-        <v>20</v>
+        <v>20.3</v>
       </c>
       <c r="E46">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>12.5</v>
       </c>
       <c r="F46">
-        <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
       </c>
       <c r="G46">
-        <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>91</v>
       </c>
       <c r="H46">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I46">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -2048,28 +1998,27 @@
         <v>8</v>
       </c>
       <c r="C47">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D47">
         <v>9.0299999999999994</v>
       </c>
       <c r="E47">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="F47">
-        <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
       </c>
       <c r="G47">
-        <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>190</v>
       </c>
       <c r="H47">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I47">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -2083,28 +2032,27 @@
         <v>9</v>
       </c>
       <c r="C48">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D48">
         <v>12.13</v>
       </c>
       <c r="E48">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>12.5</v>
       </c>
       <c r="F48">
-        <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
       </c>
       <c r="G48">
-        <f t="shared" ca="1" si="1"/>
-        <v>177</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>77</v>
       </c>
       <c r="H48">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I48">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -2118,28 +2066,27 @@
         <v>10</v>
       </c>
       <c r="C49">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D49">
         <v>12.5</v>
       </c>
       <c r="E49">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="F49">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
       </c>
       <c r="G49">
-        <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>164</v>
       </c>
       <c r="H49">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I49">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>
@@ -2153,28 +2100,27 @@
         <v>11</v>
       </c>
       <c r="C50">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D50">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="E50">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="F50">
-        <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="G50">
-        <f t="shared" ca="1" si="1"/>
-        <v>159</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
       </c>
       <c r="H50">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I50">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J50" t="s">
         <v>12</v>
@@ -2188,28 +2134,27 @@
         <v>12</v>
       </c>
       <c r="C51">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D51">
-        <v>13</v>
+        <v>13.7</v>
       </c>
       <c r="E51">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="F51">
-        <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="G51">
-        <f t="shared" ca="1" si="1"/>
-        <v>185</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
       </c>
       <c r="H51">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I51">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J51" t="s">
         <v>12</v>
@@ -2223,28 +2168,27 @@
         <v>13</v>
       </c>
       <c r="C52">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D52">
-        <v>25</v>
+        <v>25.23</v>
       </c>
       <c r="E52">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="F52">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>18</v>
       </c>
       <c r="G52">
-        <f t="shared" ca="1" si="1"/>
-        <v>140</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
       </c>
       <c r="H52">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I52">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J52" t="s">
         <v>12</v>
@@ -2258,28 +2202,27 @@
         <v>14</v>
       </c>
       <c r="C53">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D53">
-        <v>17</v>
+        <v>17.12</v>
       </c>
       <c r="E53">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>12.5</v>
       </c>
       <c r="F53">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="G53">
-        <f t="shared" ca="1" si="1"/>
-        <v>188</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>62</v>
       </c>
       <c r="H53">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I53">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J53" t="s">
         <v>12</v>
@@ -2293,28 +2236,27 @@
         <v>15</v>
       </c>
       <c r="C54">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D54">
-        <v>30</v>
+        <v>30.3</v>
       </c>
       <c r="E54">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="F54">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="G54">
-        <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>194</v>
       </c>
       <c r="H54">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I54">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J54" t="s">
         <v>12</v>
@@ -2328,28 +2270,27 @@
         <v>16</v>
       </c>
       <c r="C55">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D55">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="E55">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>12.5</v>
       </c>
       <c r="F55">
-        <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
       </c>
       <c r="G55">
-        <f t="shared" ca="1" si="1"/>
-        <v>130</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>132</v>
       </c>
       <c r="H55">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I55">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J55" t="s">
         <v>12</v>
@@ -2363,28 +2304,27 @@
         <v>17</v>
       </c>
       <c r="C56">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D56">
-        <v>11</v>
+        <v>11.23</v>
       </c>
       <c r="E56">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>14.5</v>
       </c>
       <c r="F56">
-        <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
       </c>
       <c r="G56">
-        <f t="shared" ca="1" si="1"/>
-        <v>189</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>135</v>
       </c>
       <c r="H56">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I56">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J56" t="s">
         <v>12</v>
@@ -2398,28 +2338,27 @@
         <v>18</v>
       </c>
       <c r="C57">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D57">
-        <v>50</v>
+        <v>50.12</v>
       </c>
       <c r="E57">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>13.5</v>
       </c>
       <c r="F57">
-        <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
       </c>
       <c r="G57">
-        <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
       </c>
       <c r="H57">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I57">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J57" t="s">
         <v>12</v>
@@ -2433,28 +2372,27 @@
         <v>19</v>
       </c>
       <c r="C58">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D58">
-        <v>34</v>
+        <v>34.229999999999997</v>
       </c>
       <c r="E58">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="F58">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
       </c>
       <c r="G58">
-        <f t="shared" ca="1" si="1"/>
-        <v>172</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>156</v>
       </c>
       <c r="H58">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="I58">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J58" t="s">
         <v>12</v>

--- a/src/main/resources/datasources/angleterre/infoPaieAngleterre.xlsx
+++ b/src/main/resources/datasources/angleterre/infoPaieAngleterre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\IdeaProjects\projetDintegrationGlobalHumanRessource\src\main\resources\datasources\angleterre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B71935-1AEB-4C9B-8F2E-8C03F75A902B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FF04C3-D785-425C-9912-AB18F679D4B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,7 +436,7 @@
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +537,7 @@
         <v>12</v>
       </c>
       <c r="G3">
-        <v>113.25</v>
+        <v>101.1</v>
       </c>
       <c r="H3">
         <v>45.2</v>
@@ -569,8 +569,7 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G58" ca="1" si="0">RANDBETWEEN(0,200)</f>
-        <v>89</v>
+        <v>101.1</v>
       </c>
       <c r="H4">
         <v>45.2</v>
@@ -602,8 +601,7 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>101.1</v>
       </c>
       <c r="H5">
         <v>45.2</v>
@@ -635,8 +633,7 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <f t="shared" ca="1" si="0"/>
-        <v>147</v>
+        <v>101.1</v>
       </c>
       <c r="H6">
         <v>45.2</v>
@@ -668,8 +665,7 @@
         <v>20</v>
       </c>
       <c r="G7">
-        <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>101.1</v>
       </c>
       <c r="H7">
         <v>45.2</v>
@@ -701,8 +697,7 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <f t="shared" ca="1" si="0"/>
-        <v>155</v>
+        <v>101.1</v>
       </c>
       <c r="H8">
         <v>45.2</v>
@@ -734,8 +729,7 @@
         <v>2</v>
       </c>
       <c r="G9">
-        <f t="shared" ca="1" si="0"/>
-        <v>107</v>
+        <v>101.1</v>
       </c>
       <c r="H9">
         <v>45.2</v>
@@ -767,8 +761,7 @@
         <v>11</v>
       </c>
       <c r="G10">
-        <f t="shared" ca="1" si="0"/>
-        <v>109</v>
+        <v>101.1</v>
       </c>
       <c r="H10">
         <v>45.2</v>
@@ -800,8 +793,7 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <f t="shared" ca="1" si="0"/>
-        <v>121</v>
+        <v>101.1</v>
       </c>
       <c r="H11">
         <v>45.2</v>
@@ -833,8 +825,7 @@
         <v>6</v>
       </c>
       <c r="G12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>101.1</v>
       </c>
       <c r="H12">
         <v>45.2</v>
@@ -866,8 +857,7 @@
         <v>2</v>
       </c>
       <c r="G13">
-        <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>101.1</v>
       </c>
       <c r="H13">
         <v>45.2</v>
@@ -899,8 +889,7 @@
         <v>15</v>
       </c>
       <c r="G14">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>101.1</v>
       </c>
       <c r="H14">
         <v>45.2</v>
@@ -932,8 +921,7 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>101.1</v>
       </c>
       <c r="H15">
         <v>45.2</v>
@@ -965,8 +953,7 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>101.1</v>
       </c>
       <c r="H16">
         <v>45.2</v>
@@ -998,8 +985,7 @@
         <v>10</v>
       </c>
       <c r="G17">
-        <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>101.1</v>
       </c>
       <c r="H17">
         <v>45.2</v>
@@ -1031,8 +1017,7 @@
         <v>2</v>
       </c>
       <c r="G18">
-        <f t="shared" ca="1" si="0"/>
-        <v>111</v>
+        <v>101.1</v>
       </c>
       <c r="H18">
         <v>45.2</v>
@@ -1064,8 +1049,7 @@
         <v>4</v>
       </c>
       <c r="G19">
-        <f t="shared" ca="1" si="0"/>
-        <v>191</v>
+        <v>101.1</v>
       </c>
       <c r="H19">
         <v>45.2</v>
@@ -1097,8 +1081,7 @@
         <v>7</v>
       </c>
       <c r="G20">
-        <f t="shared" ca="1" si="0"/>
-        <v>161</v>
+        <v>101.1</v>
       </c>
       <c r="H20">
         <v>45.2</v>
@@ -1131,8 +1114,7 @@
         <v>16</v>
       </c>
       <c r="G21">
-        <f t="shared" ca="1" si="0"/>
-        <v>200</v>
+        <v>101.1</v>
       </c>
       <c r="H21">
         <v>45.2</v>
@@ -1161,8 +1143,7 @@
         <v>12.5</v>
       </c>
       <c r="G22">
-        <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>101.1</v>
       </c>
       <c r="H22">
         <v>45.2</v>
@@ -1191,12 +1172,11 @@
         <v>12.5</v>
       </c>
       <c r="F23">
-        <f t="shared" ref="F23:F58" ca="1" si="1">RANDBETWEEN(1,20)</f>
-        <v>15</v>
+        <f t="shared" ref="F23:F58" ca="1" si="0">RANDBETWEEN(1,20)</f>
+        <v>17</v>
       </c>
       <c r="G23">
-        <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>101.1</v>
       </c>
       <c r="H23">
         <v>45.2</v>
@@ -1225,12 +1205,11 @@
         <v>12.5</v>
       </c>
       <c r="F24">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
       </c>
       <c r="G24">
-        <f t="shared" ca="1" si="0"/>
-        <v>132</v>
+        <v>101.1</v>
       </c>
       <c r="H24">
         <v>45.2</v>
@@ -1259,12 +1238,11 @@
         <v>12.5</v>
       </c>
       <c r="F25">
-        <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
       </c>
       <c r="G25">
-        <f t="shared" ca="1" si="0"/>
-        <v>155</v>
+        <v>101.1</v>
       </c>
       <c r="H25">
         <v>45.2</v>
@@ -1293,12 +1271,11 @@
         <v>12.5</v>
       </c>
       <c r="F26">
-        <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="G26">
-        <f t="shared" ca="1" si="0"/>
-        <v>167</v>
+        <v>101.1</v>
       </c>
       <c r="H26">
         <v>45.2</v>
@@ -1327,12 +1304,11 @@
         <v>12.5</v>
       </c>
       <c r="F27">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
       </c>
       <c r="G27">
-        <f t="shared" ca="1" si="0"/>
-        <v>101</v>
+        <v>101.1</v>
       </c>
       <c r="H27">
         <v>45.2</v>
@@ -1361,12 +1337,11 @@
         <v>12.5</v>
       </c>
       <c r="F28">
-        <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
       </c>
       <c r="G28">
-        <f t="shared" ca="1" si="0"/>
-        <v>167</v>
+        <v>101.1</v>
       </c>
       <c r="H28">
         <v>45.2</v>
@@ -1395,12 +1370,11 @@
         <v>12.5</v>
       </c>
       <c r="F29">
-        <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
       </c>
       <c r="G29">
-        <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>101.1</v>
       </c>
       <c r="H29">
         <v>45.2</v>
@@ -1429,12 +1403,11 @@
         <v>12.5</v>
       </c>
       <c r="F30">
-        <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="G30">
-        <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>101.1</v>
       </c>
       <c r="H30">
         <v>45.2</v>
@@ -1463,12 +1436,11 @@
         <v>12.5</v>
       </c>
       <c r="F31">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
       </c>
       <c r="G31">
-        <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>101.1</v>
       </c>
       <c r="H31">
         <v>45.2</v>
@@ -1497,12 +1469,11 @@
         <v>12.5</v>
       </c>
       <c r="F32">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
       </c>
       <c r="G32">
-        <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>101.1</v>
       </c>
       <c r="H32">
         <v>45.2</v>
@@ -1531,12 +1502,11 @@
         <v>12.5</v>
       </c>
       <c r="F33">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="G33">
-        <f t="shared" ca="1" si="0"/>
-        <v>150</v>
+        <v>101.1</v>
       </c>
       <c r="H33">
         <v>45.2</v>
@@ -1565,12 +1535,11 @@
         <v>12.5</v>
       </c>
       <c r="F34">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
       </c>
       <c r="G34">
-        <f t="shared" ca="1" si="0"/>
-        <v>169</v>
+        <v>101.1</v>
       </c>
       <c r="H34">
         <v>45.2</v>
@@ -1599,12 +1568,11 @@
         <v>12.5</v>
       </c>
       <c r="F35">
-        <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
       </c>
       <c r="G35">
-        <f t="shared" ca="1" si="0"/>
-        <v>145</v>
+        <v>101.1</v>
       </c>
       <c r="H35">
         <v>45.2</v>
@@ -1633,12 +1601,11 @@
         <v>12.5</v>
       </c>
       <c r="F36">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="G36">
-        <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>101.1</v>
       </c>
       <c r="H36">
         <v>45.2</v>
@@ -1667,12 +1634,11 @@
         <v>12.5</v>
       </c>
       <c r="F37">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
       </c>
       <c r="G37">
-        <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>101.1</v>
       </c>
       <c r="H37">
         <v>45.2</v>
@@ -1701,12 +1667,11 @@
         <v>12.5</v>
       </c>
       <c r="F38">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="G38">
-        <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>101.1</v>
       </c>
       <c r="H38">
         <v>45.2</v>
@@ -1735,12 +1700,11 @@
         <v>12.5</v>
       </c>
       <c r="F39">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
       </c>
       <c r="G39">
-        <f t="shared" ca="1" si="0"/>
-        <v>180</v>
+        <v>101.1</v>
       </c>
       <c r="H39">
         <v>45.2</v>
@@ -1769,12 +1733,11 @@
         <v>12.5</v>
       </c>
       <c r="F40">
-        <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="G40">
-        <f t="shared" ca="1" si="0"/>
-        <v>165</v>
+        <v>101.1</v>
       </c>
       <c r="H40">
         <v>45.2</v>
@@ -1803,12 +1766,11 @@
         <v>12.5</v>
       </c>
       <c r="F41">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
       </c>
       <c r="G41">
-        <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>101.1</v>
       </c>
       <c r="H41">
         <v>45.2</v>
@@ -1837,12 +1799,11 @@
         <v>12.5</v>
       </c>
       <c r="F42">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
       </c>
       <c r="G42">
-        <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>101.1</v>
       </c>
       <c r="H42">
         <v>45.2</v>
@@ -1871,12 +1832,11 @@
         <v>12.5</v>
       </c>
       <c r="F43">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
       </c>
       <c r="G43">
-        <f t="shared" ca="1" si="0"/>
-        <v>105</v>
+        <v>101.1</v>
       </c>
       <c r="H43">
         <v>45.2</v>
@@ -1905,12 +1865,11 @@
         <v>15.5</v>
       </c>
       <c r="F44">
-        <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
       </c>
       <c r="G44">
-        <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>101.1</v>
       </c>
       <c r="H44">
         <v>45.2</v>
@@ -1939,12 +1898,11 @@
         <v>12.5</v>
       </c>
       <c r="F45">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
       </c>
       <c r="G45">
-        <f t="shared" ca="1" si="0"/>
-        <v>182</v>
+        <v>101.1</v>
       </c>
       <c r="H45">
         <v>45.2</v>
@@ -1973,12 +1931,11 @@
         <v>12.5</v>
       </c>
       <c r="F46">
-        <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
       </c>
       <c r="G46">
-        <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>101.1</v>
       </c>
       <c r="H46">
         <v>45.2</v>
@@ -2007,12 +1964,11 @@
         <v>12.5</v>
       </c>
       <c r="F47">
-        <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
       </c>
       <c r="G47">
-        <f t="shared" ca="1" si="0"/>
-        <v>190</v>
+        <v>101.1</v>
       </c>
       <c r="H47">
         <v>45.2</v>
@@ -2041,12 +1997,11 @@
         <v>12.5</v>
       </c>
       <c r="F48">
-        <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="G48">
-        <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>101.1</v>
       </c>
       <c r="H48">
         <v>45.2</v>
@@ -2075,12 +2030,11 @@
         <v>12.5</v>
       </c>
       <c r="F49">
-        <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
       </c>
       <c r="G49">
-        <f t="shared" ca="1" si="0"/>
-        <v>164</v>
+        <v>101.1</v>
       </c>
       <c r="H49">
         <v>45.2</v>
@@ -2109,12 +2063,11 @@
         <v>12.5</v>
       </c>
       <c r="F50">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
       </c>
       <c r="G50">
-        <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>101.1</v>
       </c>
       <c r="H50">
         <v>45.2</v>
@@ -2143,12 +2096,11 @@
         <v>12.5</v>
       </c>
       <c r="F51">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
       </c>
       <c r="G51">
-        <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>101.1</v>
       </c>
       <c r="H51">
         <v>45.2</v>
@@ -2177,12 +2129,11 @@
         <v>12.5</v>
       </c>
       <c r="F52">
-        <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="G52">
-        <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>101.1</v>
       </c>
       <c r="H52">
         <v>45.2</v>
@@ -2211,12 +2162,11 @@
         <v>12.5</v>
       </c>
       <c r="F53">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="G53">
-        <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>101.1</v>
       </c>
       <c r="H53">
         <v>45.2</v>
@@ -2245,12 +2195,11 @@
         <v>12.5</v>
       </c>
       <c r="F54">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
       </c>
       <c r="G54">
-        <f t="shared" ca="1" si="0"/>
-        <v>194</v>
+        <v>101.1</v>
       </c>
       <c r="H54">
         <v>45.2</v>
@@ -2279,12 +2228,11 @@
         <v>12.5</v>
       </c>
       <c r="F55">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
       </c>
       <c r="G55">
-        <f t="shared" ca="1" si="0"/>
-        <v>132</v>
+        <v>101.1</v>
       </c>
       <c r="H55">
         <v>45.2</v>
@@ -2313,12 +2261,11 @@
         <v>14.5</v>
       </c>
       <c r="F56">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
       </c>
       <c r="G56">
-        <f t="shared" ca="1" si="0"/>
-        <v>135</v>
+        <v>101.1</v>
       </c>
       <c r="H56">
         <v>45.2</v>
@@ -2347,12 +2294,11 @@
         <v>13.5</v>
       </c>
       <c r="F57">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
       <c r="G57">
-        <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>101.1</v>
       </c>
       <c r="H57">
         <v>45.2</v>
@@ -2381,12 +2327,11 @@
         <v>12.5</v>
       </c>
       <c r="F58">
-        <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="G58">
-        <f t="shared" ca="1" si="0"/>
-        <v>156</v>
+        <v>101.1</v>
       </c>
       <c r="H58">
         <v>45.2</v>

--- a/src/main/resources/datasources/angleterre/infoPaieAngleterre.xlsx
+++ b/src/main/resources/datasources/angleterre/infoPaieAngleterre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\IdeaProjects\projetDintegrationGlobalHumanRessource\src\main\resources\datasources\angleterre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FF04C3-D785-425C-9912-AB18F679D4B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DB4AAB-55AB-41FE-9B17-7CFDF2AFC4C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,7 +436,7 @@
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,7 +601,7 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>101.1</v>
+        <v>105.1</v>
       </c>
       <c r="H5">
         <v>45.2</v>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="F23">
         <f t="shared" ref="F23:F58" ca="1" si="0">RANDBETWEEN(1,20)</f>
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G23">
         <v>101.1</v>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G24">
         <v>101.1</v>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="G25">
         <v>101.1</v>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>101.1</v>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G27">
         <v>101.1</v>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G29">
         <v>101.1</v>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G30">
         <v>101.1</v>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G31">
         <v>101.1</v>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G32">
         <v>101.1</v>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G33">
         <v>101.1</v>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G34">
         <v>101.1</v>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G35">
         <v>101.1</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G37">
         <v>101.1</v>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G38">
         <v>101.1</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G39">
         <v>101.1</v>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G40">
         <v>101.1</v>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G41">
         <v>101.1</v>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G42">
         <v>101.1</v>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G44">
         <v>101.1</v>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G45">
         <v>101.1</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G46">
         <v>101.1</v>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G47">
         <v>101.1</v>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G48">
         <v>101.1</v>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G49">
         <v>101.1</v>
@@ -2064,7 +2064,7 @@
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G50">
         <v>101.1</v>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G51">
         <v>101.1</v>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G52">
         <v>101.1</v>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G53">
         <v>101.1</v>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G54">
         <v>101.1</v>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="G55">
         <v>101.1</v>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G56">
         <v>101.1</v>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G57">
         <v>101.1</v>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G58">
         <v>101.1</v>

--- a/src/main/resources/datasources/angleterre/infoPaieAngleterre.xlsx
+++ b/src/main/resources/datasources/angleterre/infoPaieAngleterre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\IdeaProjects\projetDintegrationGlobalHumanRessource\src\main\resources\datasources\angleterre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DB4AAB-55AB-41FE-9B17-7CFDF2AFC4C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D785A3-37B0-4054-848F-8781B5A63632}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,7 +436,7 @@
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="F21">
         <f ca="1">RANDBETWEEN(1,20)</f>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>101.1</v>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="F23">
         <f t="shared" ref="F23:F58" ca="1" si="0">RANDBETWEEN(1,20)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G23">
         <v>101.1</v>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G24">
         <v>101.1</v>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G25">
         <v>101.1</v>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G26">
         <v>101.1</v>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G27">
         <v>101.1</v>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G28">
         <v>101.1</v>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G29">
         <v>101.1</v>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G30">
         <v>101.1</v>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G31">
         <v>101.1</v>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G32">
         <v>101.1</v>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G33">
         <v>101.1</v>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G34">
         <v>101.1</v>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G35">
         <v>101.1</v>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G36">
         <v>101.1</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G37">
         <v>101.1</v>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G38">
         <v>101.1</v>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G40">
         <v>101.1</v>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G41">
         <v>101.1</v>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G42">
         <v>101.1</v>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G44">
         <v>101.1</v>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G45">
         <v>101.1</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G46">
         <v>101.1</v>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G47">
         <v>101.1</v>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G48">
         <v>101.1</v>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G49">
         <v>101.1</v>
@@ -2064,7 +2064,7 @@
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G50">
         <v>101.1</v>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G51">
         <v>101.1</v>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G52">
         <v>101.1</v>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G53">
         <v>101.1</v>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G54">
         <v>101.1</v>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G55">
         <v>101.1</v>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G56">
         <v>101.1</v>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G57">
         <v>101.1</v>

--- a/src/main/resources/datasources/angleterre/infoPaieAngleterre.xlsx
+++ b/src/main/resources/datasources/angleterre/infoPaieAngleterre.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\IdeaProjects\projetDintegrationGlobalHumanRessource\src\main\resources\datasources\angleterre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\datasources\datasources\angleterre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D785A3-37B0-4054-848F-8781B5A63632}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF9413E-F6D5-4B25-94FE-8AC4645DBFF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,7 +436,7 @@
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +493,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D2">
         <v>6.12</v>
@@ -505,13 +505,13 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>101.1</v>
+        <v>110.2</v>
       </c>
       <c r="H2">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I2">
-        <v>20.5</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
@@ -525,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D3">
         <v>13.24</v>
@@ -537,10 +537,10 @@
         <v>12</v>
       </c>
       <c r="G3">
-        <v>101.1</v>
+        <v>245.2</v>
       </c>
       <c r="H3">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I3">
         <v>20.5</v>
@@ -557,7 +557,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D4">
         <v>71.13</v>
@@ -569,13 +569,13 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>101.1</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="H4">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I4">
-        <v>20.5</v>
+        <v>33.5</v>
       </c>
       <c r="J4" t="s">
         <v>10</v>
@@ -589,7 +589,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D5">
         <v>55.6</v>
@@ -601,13 +601,13 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="H5">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I5">
-        <v>20.5</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="J5" t="s">
         <v>10</v>
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D6">
         <v>45.3</v>
@@ -633,10 +633,10 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>101.1</v>
+        <v>170.07</v>
       </c>
       <c r="H6">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I6">
         <v>20.5</v>
@@ -653,7 +653,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D7">
         <v>23.5</v>
@@ -665,13 +665,13 @@
         <v>20</v>
       </c>
       <c r="G7">
-        <v>101.1</v>
+        <v>8.09</v>
       </c>
       <c r="H7">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I7">
-        <v>20.5</v>
+        <v>33.5</v>
       </c>
       <c r="J7" t="s">
         <v>10</v>
@@ -685,7 +685,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D8">
         <v>20.3</v>
@@ -697,13 +697,13 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>101.1</v>
+        <v>162.12</v>
       </c>
       <c r="H8">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I8">
-        <v>20.5</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="J8" t="s">
         <v>10</v>
@@ -717,7 +717,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D9">
         <v>9.0299999999999994</v>
@@ -729,10 +729,10 @@
         <v>2</v>
       </c>
       <c r="G9">
-        <v>101.1</v>
+        <v>141.22999999999999</v>
       </c>
       <c r="H9">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I9">
         <v>20.5</v>
@@ -749,7 +749,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D10">
         <v>12.13</v>
@@ -761,13 +761,13 @@
         <v>11</v>
       </c>
       <c r="G10">
-        <v>101.1</v>
+        <v>22.7</v>
       </c>
       <c r="H10">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I10">
-        <v>20.5</v>
+        <v>33.5</v>
       </c>
       <c r="J10" t="s">
         <v>10</v>
@@ -781,7 +781,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D11">
         <v>12.5</v>
@@ -793,13 +793,13 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <v>101.1</v>
+        <v>16.34</v>
       </c>
       <c r="H11">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I11">
-        <v>20.5</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="J11" t="s">
         <v>10</v>
@@ -813,7 +813,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D12">
         <v>14.2</v>
@@ -825,10 +825,10 @@
         <v>6</v>
       </c>
       <c r="G12">
-        <v>101.1</v>
+        <v>95.09</v>
       </c>
       <c r="H12">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I12">
         <v>20.5</v>
@@ -845,7 +845,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D13">
         <v>13.7</v>
@@ -857,13 +857,13 @@
         <v>2</v>
       </c>
       <c r="G13">
-        <v>101.1</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="H13">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I13">
-        <v>20.5</v>
+        <v>33.5</v>
       </c>
       <c r="J13" t="s">
         <v>10</v>
@@ -877,7 +877,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D14">
         <v>25.23</v>
@@ -889,13 +889,13 @@
         <v>15</v>
       </c>
       <c r="G14">
-        <v>101.1</v>
+        <v>32.67</v>
       </c>
       <c r="H14">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I14">
-        <v>20.5</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="J14" t="s">
         <v>10</v>
@@ -909,7 +909,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D15">
         <v>17.12</v>
@@ -921,10 +921,10 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>101.1</v>
+        <v>12.41</v>
       </c>
       <c r="H15">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I15">
         <v>20.5</v>
@@ -941,7 +941,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D16">
         <v>30.3</v>
@@ -953,13 +953,13 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>101.1</v>
+        <v>23.12</v>
       </c>
       <c r="H16">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I16">
-        <v>20.5</v>
+        <v>33.5</v>
       </c>
       <c r="J16" t="s">
         <v>10</v>
@@ -973,7 +973,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D17">
         <v>26.2</v>
@@ -985,13 +985,13 @@
         <v>10</v>
       </c>
       <c r="G17">
-        <v>101.1</v>
+        <v>15.07</v>
       </c>
       <c r="H17">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I17">
-        <v>20.5</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="J17" t="s">
         <v>10</v>
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D18">
         <v>11.23</v>
@@ -1017,10 +1017,10 @@
         <v>2</v>
       </c>
       <c r="G18">
-        <v>101.1</v>
+        <v>70.2</v>
       </c>
       <c r="H18">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I18">
         <v>20.5</v>
@@ -1037,7 +1037,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D19">
         <v>50.12</v>
@@ -1049,13 +1049,13 @@
         <v>4</v>
       </c>
       <c r="G19">
-        <v>101.1</v>
+        <v>55.2</v>
       </c>
       <c r="H19">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I19">
-        <v>20.5</v>
+        <v>33.5</v>
       </c>
       <c r="J19" t="s">
         <v>10</v>
@@ -1069,7 +1069,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D20">
         <v>34.229999999999997</v>
@@ -1081,13 +1081,13 @@
         <v>7</v>
       </c>
       <c r="G20">
-        <v>101.1</v>
+        <v>32.89</v>
       </c>
       <c r="H20">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I20">
-        <v>20.5</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="J20" t="s">
         <v>10</v>
@@ -1101,7 +1101,7 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D21">
         <v>6.12</v>
@@ -1110,14 +1110,13 @@
         <v>12.5</v>
       </c>
       <c r="F21">
-        <f ca="1">RANDBETWEEN(1,20)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>101.1</v>
+        <v>20.2</v>
       </c>
       <c r="H21">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I21">
         <v>20.5</v>
@@ -1134,7 +1133,7 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D22">
         <v>13.24</v>
@@ -1142,14 +1141,17 @@
       <c r="E22">
         <v>12.5</v>
       </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
       <c r="G22">
-        <v>101.1</v>
+        <v>45.2</v>
       </c>
       <c r="H22">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I22">
-        <v>20.5</v>
+        <v>33.5</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1163,7 +1165,7 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D23">
         <v>71.13</v>
@@ -1172,17 +1174,16 @@
         <v>12.5</v>
       </c>
       <c r="F23">
-        <f t="shared" ref="F23:F58" ca="1" si="0">RANDBETWEEN(1,20)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G23">
-        <v>101.1</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="H23">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I23">
-        <v>20.5</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1196,7 +1197,7 @@
         <v>4</v>
       </c>
       <c r="C24">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D24">
         <v>55.6</v>
@@ -1205,14 +1206,13 @@
         <v>12.5</v>
       </c>
       <c r="F24">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G24">
-        <v>101.1</v>
+        <v>15.2</v>
       </c>
       <c r="H24">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I24">
         <v>20.5</v>
@@ -1229,7 +1229,7 @@
         <v>5</v>
       </c>
       <c r="C25">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D25">
         <v>45.3</v>
@@ -1238,17 +1238,16 @@
         <v>12.5</v>
       </c>
       <c r="F25">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G25">
-        <v>101.1</v>
+        <v>17.07</v>
       </c>
       <c r="H25">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I25">
-        <v>20.5</v>
+        <v>33.5</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1262,7 +1261,7 @@
         <v>6</v>
       </c>
       <c r="C26">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D26">
         <v>23.5</v>
@@ -1271,17 +1270,16 @@
         <v>12.5</v>
       </c>
       <c r="F26">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G26">
-        <v>101.1</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="H26">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I26">
-        <v>20.5</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1295,7 +1293,7 @@
         <v>7</v>
       </c>
       <c r="C27">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D27">
         <v>20.3</v>
@@ -1304,14 +1302,13 @@
         <v>12.5</v>
       </c>
       <c r="F27">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>101.1</v>
+        <v>16.12</v>
       </c>
       <c r="H27">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I27">
         <v>20.5</v>
@@ -1328,7 +1325,7 @@
         <v>8</v>
       </c>
       <c r="C28">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D28">
         <v>9.0299999999999994</v>
@@ -1337,17 +1334,16 @@
         <v>12.5</v>
       </c>
       <c r="F28">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G28">
-        <v>101.1</v>
+        <v>14.23</v>
       </c>
       <c r="H28">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I28">
-        <v>20.5</v>
+        <v>33.5</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1361,7 +1357,7 @@
         <v>9</v>
       </c>
       <c r="C29">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D29">
         <v>12.13</v>
@@ -1370,17 +1366,16 @@
         <v>12.5</v>
       </c>
       <c r="F29">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G29">
-        <v>101.1</v>
+        <v>22.7</v>
       </c>
       <c r="H29">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I29">
-        <v>20.5</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1394,7 +1389,7 @@
         <v>10</v>
       </c>
       <c r="C30">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D30">
         <v>12.5</v>
@@ -1403,14 +1398,13 @@
         <v>12.5</v>
       </c>
       <c r="F30">
-        <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G30">
-        <v>101.1</v>
+        <v>16.34</v>
       </c>
       <c r="H30">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I30">
         <v>20.5</v>
@@ -1427,7 +1421,7 @@
         <v>11</v>
       </c>
       <c r="C31">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D31">
         <v>14.2</v>
@@ -1436,17 +1430,16 @@
         <v>12.5</v>
       </c>
       <c r="F31">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31">
-        <v>101.1</v>
+        <v>45.09</v>
       </c>
       <c r="H31">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I31">
-        <v>20.5</v>
+        <v>33.5</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1460,7 +1453,7 @@
         <v>12</v>
       </c>
       <c r="C32">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D32">
         <v>13.7</v>
@@ -1469,17 +1462,16 @@
         <v>12.5</v>
       </c>
       <c r="F32">
-        <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
       <c r="G32">
-        <v>101.1</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="H32">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I32">
-        <v>20.5</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1493,7 +1485,7 @@
         <v>13</v>
       </c>
       <c r="C33">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D33">
         <v>25.23</v>
@@ -1502,14 +1494,13 @@
         <v>12.5</v>
       </c>
       <c r="F33">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G33">
-        <v>101.1</v>
+        <v>32.67</v>
       </c>
       <c r="H33">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I33">
         <v>20.5</v>
@@ -1526,7 +1517,7 @@
         <v>14</v>
       </c>
       <c r="C34">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D34">
         <v>17.12</v>
@@ -1535,17 +1526,16 @@
         <v>12.5</v>
       </c>
       <c r="F34">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G34">
-        <v>101.1</v>
+        <v>124.1</v>
       </c>
       <c r="H34">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I34">
-        <v>20.5</v>
+        <v>33.5</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1559,7 +1549,7 @@
         <v>15</v>
       </c>
       <c r="C35">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D35">
         <v>30.3</v>
@@ -1568,17 +1558,16 @@
         <v>12.5</v>
       </c>
       <c r="F35">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G35">
-        <v>101.1</v>
+        <v>231.2</v>
       </c>
       <c r="H35">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I35">
-        <v>20.5</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1592,7 +1581,7 @@
         <v>16</v>
       </c>
       <c r="C36">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D36">
         <v>26.2</v>
@@ -1601,14 +1590,13 @@
         <v>12.5</v>
       </c>
       <c r="F36">
-        <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G36">
-        <v>101.1</v>
+        <v>150.69999999999999</v>
       </c>
       <c r="H36">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I36">
         <v>20.5</v>
@@ -1625,7 +1613,7 @@
         <v>17</v>
       </c>
       <c r="C37">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D37">
         <v>11.23</v>
@@ -1634,17 +1622,16 @@
         <v>12.5</v>
       </c>
       <c r="F37">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G37">
-        <v>101.1</v>
+        <v>73.3</v>
       </c>
       <c r="H37">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I37">
-        <v>20.5</v>
+        <v>33.5</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1658,7 +1645,7 @@
         <v>18</v>
       </c>
       <c r="C38">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D38">
         <v>50.12</v>
@@ -1667,17 +1654,16 @@
         <v>12.5</v>
       </c>
       <c r="F38">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38">
-        <v>101.1</v>
+        <v>55.2</v>
       </c>
       <c r="H38">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I38">
-        <v>20.5</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1691,7 +1677,7 @@
         <v>19</v>
       </c>
       <c r="C39">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D39">
         <v>34.229999999999997</v>
@@ -1700,14 +1686,13 @@
         <v>12.5</v>
       </c>
       <c r="F39">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G39">
-        <v>101.1</v>
+        <v>32.89</v>
       </c>
       <c r="H39">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I39">
         <v>20.5</v>
@@ -1724,7 +1709,7 @@
         <v>1</v>
       </c>
       <c r="C40">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D40">
         <v>6.12</v>
@@ -1733,17 +1718,16 @@
         <v>12.5</v>
       </c>
       <c r="F40">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G40">
-        <v>101.1</v>
+        <v>201.2</v>
       </c>
       <c r="H40">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I40">
-        <v>20.5</v>
+        <v>33.5</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>12</v>
@@ -1757,7 +1741,7 @@
         <v>2</v>
       </c>
       <c r="C41">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D41">
         <v>13.24</v>
@@ -1766,17 +1750,16 @@
         <v>12.5</v>
       </c>
       <c r="F41">
-        <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>101.1</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="H41">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I41">
-        <v>20.5</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1790,7 +1773,7 @@
         <v>3</v>
       </c>
       <c r="C42">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D42">
         <v>71.13</v>
@@ -1799,14 +1782,13 @@
         <v>12.5</v>
       </c>
       <c r="F42">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G42">
-        <v>101.1</v>
+        <v>135.30000000000001</v>
       </c>
       <c r="H42">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I42">
         <v>20.5</v>
@@ -1823,7 +1805,7 @@
         <v>4</v>
       </c>
       <c r="C43">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D43">
         <v>55.6</v>
@@ -1832,17 +1814,16 @@
         <v>12.5</v>
       </c>
       <c r="F43">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>101.1</v>
+        <v>150.19999999999999</v>
       </c>
       <c r="H43">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I43">
-        <v>20.5</v>
+        <v>33.5</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1856,7 +1837,7 @@
         <v>5</v>
       </c>
       <c r="C44">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D44">
         <v>45.3</v>
@@ -1865,17 +1846,16 @@
         <v>15.5</v>
       </c>
       <c r="F44">
-        <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
       <c r="G44">
-        <v>101.1</v>
+        <v>17.07</v>
       </c>
       <c r="H44">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I44">
-        <v>20.5</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1889,7 +1869,7 @@
         <v>6</v>
       </c>
       <c r="C45">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D45">
         <v>23.5</v>
@@ -1898,14 +1878,13 @@
         <v>12.5</v>
       </c>
       <c r="F45">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G45">
-        <v>101.1</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="H45">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I45">
         <v>20.5</v>
@@ -1922,7 +1901,7 @@
         <v>7</v>
       </c>
       <c r="C46">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D46">
         <v>20.3</v>
@@ -1931,17 +1910,16 @@
         <v>12.5</v>
       </c>
       <c r="F46">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G46">
-        <v>101.1</v>
+        <v>163.12</v>
       </c>
       <c r="H46">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I46">
-        <v>20.5</v>
+        <v>33.5</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1955,7 +1933,7 @@
         <v>8</v>
       </c>
       <c r="C47">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D47">
         <v>9.0299999999999994</v>
@@ -1964,17 +1942,16 @@
         <v>12.5</v>
       </c>
       <c r="F47">
-        <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G47">
-        <v>101.1</v>
+        <v>104.23</v>
       </c>
       <c r="H47">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I47">
-        <v>20.5</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1988,7 +1965,7 @@
         <v>9</v>
       </c>
       <c r="C48">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D48">
         <v>12.13</v>
@@ -1997,14 +1974,13 @@
         <v>12.5</v>
       </c>
       <c r="F48">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G48">
-        <v>101.1</v>
+        <v>221.7</v>
       </c>
       <c r="H48">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I48">
         <v>20.5</v>
@@ -2021,7 +1997,7 @@
         <v>10</v>
       </c>
       <c r="C49">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D49">
         <v>12.5</v>
@@ -2030,17 +2006,16 @@
         <v>12.5</v>
       </c>
       <c r="F49">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G49">
-        <v>101.1</v>
+        <v>106.34</v>
       </c>
       <c r="H49">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I49">
-        <v>20.5</v>
+        <v>33.5</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>
@@ -2054,7 +2029,7 @@
         <v>11</v>
       </c>
       <c r="C50">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D50">
         <v>14.2</v>
@@ -2063,17 +2038,16 @@
         <v>12.5</v>
       </c>
       <c r="F50">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G50">
-        <v>101.1</v>
+        <v>45.09</v>
       </c>
       <c r="H50">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I50">
-        <v>20.5</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="J50" t="s">
         <v>12</v>
@@ -2087,7 +2061,7 @@
         <v>12</v>
       </c>
       <c r="C51">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D51">
         <v>13.7</v>
@@ -2096,14 +2070,13 @@
         <v>12.5</v>
       </c>
       <c r="F51">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G51">
-        <v>101.1</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="H51">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I51">
         <v>20.5</v>
@@ -2120,7 +2093,7 @@
         <v>13</v>
       </c>
       <c r="C52">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D52">
         <v>25.23</v>
@@ -2129,17 +2102,16 @@
         <v>12.5</v>
       </c>
       <c r="F52">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G52">
-        <v>101.1</v>
+        <v>32.67</v>
       </c>
       <c r="H52">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I52">
-        <v>20.5</v>
+        <v>33.5</v>
       </c>
       <c r="J52" t="s">
         <v>12</v>
@@ -2153,7 +2125,7 @@
         <v>14</v>
       </c>
       <c r="C53">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D53">
         <v>17.12</v>
@@ -2162,17 +2134,16 @@
         <v>12.5</v>
       </c>
       <c r="F53">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G53">
-        <v>101.1</v>
+        <v>122.41</v>
       </c>
       <c r="H53">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I53">
-        <v>20.5</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="J53" t="s">
         <v>12</v>
@@ -2186,7 +2157,7 @@
         <v>15</v>
       </c>
       <c r="C54">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D54">
         <v>30.3</v>
@@ -2195,14 +2166,13 @@
         <v>12.5</v>
       </c>
       <c r="F54">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G54">
-        <v>101.1</v>
+        <v>203.12</v>
       </c>
       <c r="H54">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I54">
         <v>20.5</v>
@@ -2219,7 +2189,7 @@
         <v>16</v>
       </c>
       <c r="C55">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D55">
         <v>26.2</v>
@@ -2228,17 +2198,16 @@
         <v>12.5</v>
       </c>
       <c r="F55">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G55">
-        <v>101.1</v>
+        <v>15.07</v>
       </c>
       <c r="H55">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I55">
-        <v>20.5</v>
+        <v>33.5</v>
       </c>
       <c r="J55" t="s">
         <v>12</v>
@@ -2252,7 +2221,7 @@
         <v>17</v>
       </c>
       <c r="C56">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D56">
         <v>11.23</v>
@@ -2261,17 +2230,16 @@
         <v>14.5</v>
       </c>
       <c r="F56">
-        <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G56">
-        <v>101.1</v>
+        <v>107.2</v>
       </c>
       <c r="H56">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I56">
-        <v>20.5</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="J56" t="s">
         <v>12</v>
@@ -2285,7 +2253,7 @@
         <v>18</v>
       </c>
       <c r="C57">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D57">
         <v>50.12</v>
@@ -2294,14 +2262,13 @@
         <v>13.5</v>
       </c>
       <c r="F57">
-        <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G57">
-        <v>101.1</v>
+        <v>155.19999999999999</v>
       </c>
       <c r="H57">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I57">
         <v>20.5</v>
@@ -2318,7 +2285,7 @@
         <v>19</v>
       </c>
       <c r="C58">
-        <v>35.1</v>
+        <v>45.1</v>
       </c>
       <c r="D58">
         <v>34.229999999999997</v>
@@ -2327,17 +2294,16 @@
         <v>12.5</v>
       </c>
       <c r="F58">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G58">
-        <v>101.1</v>
+        <v>132.88999999999999</v>
       </c>
       <c r="H58">
-        <v>45.2</v>
+        <v>55.5</v>
       </c>
       <c r="I58">
-        <v>20.5</v>
+        <v>33.5</v>
       </c>
       <c r="J58" t="s">
         <v>12</v>
@@ -2348,4 +2314,212 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100654329B97B503A49AABBB110B3A1CE9F" ma:contentTypeVersion="6" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="cbeca0e78f2af041d481eb5f034a155f">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d8622fd7-cec1-4731-a423-3ed22d3b9aea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bec814e9f48df65f8f22e78da7713096" ns2:_="">
+    <xsd:import namespace="d8622fd7-cec1-4731-a423-3ed22d3b9aea"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d8622fd7-cec1-4731-a423-3ed22d3b9aea" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70369E35-24DF-4E3D-9AFF-FAEB02F57EC4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d8622fd7-cec1-4731-a423-3ed22d3b9aea"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16DB6627-6C74-4B86-95EE-08A5BBE9E504}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DCA612B-652F-494E-97E7-2EB45F223FA3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>